--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -112,6 +111,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -125,8 +127,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -493,499 +494,645 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="17.68" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="17.68" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>regression_123</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>regression_124</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>regression_125</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>regression_126</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="D5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44355.86976752315</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>regression_127</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="G6" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44355.87199148148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>regression_128</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="G7" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44356.64708844908</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>regression_129</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>4.1234568</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>44356.6720065625</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>regression_130</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="6" t="n">
         <v>4.7234568</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>44356.67541913194</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>regression_131</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="D10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>4.6234568</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="13.8" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>44356.67760886574</v>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>regression_132</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
+      <c r="D11" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>4.1234568</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="13.8" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>44356.67908944444</v>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>regression_133</t>
         </is>
       </c>
-      <c r="D12" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="n">
+      <c r="D12" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>4.8234568</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="13.8" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>44357.6165490625</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>regression_134</t>
         </is>
       </c>
-      <c r="D13" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
+      <c r="D13" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>4.1234568</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="13.8" customHeight="1" s="7">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>44357.61963127315</v>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>regression_135</t>
         </is>
       </c>
-      <c r="D14" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="n">
+      <c r="D14" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
         <v>4.1234568</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="15" ht="13.8" customHeight="1" s="7">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>44357.67216959491</v>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>regression_136</t>
         </is>
       </c>
-      <c r="D15" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="n">
+      <c r="D15" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
         <v>4.1234568</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="A16" s="10" t="n">
-        <v>44357.68842468136</v>
+    <row r="16" ht="13.8" customHeight="1" s="7">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
       </c>
       <c r="B16" s="11" t="n">
-        <v>44357.68846461125</v>
-      </c>
-      <c r="C16" t="inlineStr">
+        <v>44357.74573234954</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>regression_137</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>269</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>269</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.5269517333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="13.8" customHeight="1" s="6">
-      <c r="B17" s="8" t="n"/>
-    </row>
-    <row r="18" ht="13.8" customHeight="1" s="6">
-      <c r="B18" s="8" t="n"/>
-    </row>
-    <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="B19" s="8" t="n"/>
-    </row>
-    <row r="20" ht="13.8" customHeight="1" s="6">
-      <c r="B20" s="8" t="n"/>
-    </row>
-    <row r="21" ht="13.8" customHeight="1" s="6">
-      <c r="B21" s="8" t="n"/>
-    </row>
-    <row r="22" ht="13.8" customHeight="1" s="6">
-      <c r="B22" s="8" t="n"/>
-    </row>
-    <row r="23" ht="13.8" customHeight="1" s="6">
-      <c r="B23" s="8" t="n"/>
-    </row>
-    <row r="24" ht="13.8" customHeight="1" s="6">
-      <c r="B24" s="8" t="n"/>
-    </row>
-    <row r="25" ht="13.8" customHeight="1" s="6">
-      <c r="B25" s="8" t="n"/>
-    </row>
-    <row r="26" ht="13.8" customHeight="1" s="6"/>
-    <row r="27" ht="13.8" customHeight="1" s="6"/>
-    <row r="28" ht="13.8" customHeight="1" s="6"/>
-    <row r="29" ht="13.8" customHeight="1" s="6"/>
-    <row r="30" ht="13.8" customHeight="1" s="6"/>
-    <row r="31" ht="13.8" customHeight="1" s="6"/>
-    <row r="32" ht="13.8" customHeight="1" s="6"/>
-    <row r="33" ht="13.8" customHeight="1" s="6"/>
-    <row r="34" ht="13.8" customHeight="1" s="6"/>
-    <row r="35" ht="13.8" customHeight="1" s="6"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
+      <c r="D16" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.4828147666666667</v>
+      </c>
+    </row>
+    <row r="17" ht="13.8" customHeight="1" s="7">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44357.86705533565</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>regression_138</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.4801402666666667</v>
+      </c>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" s="7">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44357.8685555324</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>regression_139</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.1526200166666667</v>
+      </c>
+    </row>
+    <row r="19" ht="13.8" customHeight="1" s="7">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>44357.86951400463</v>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>regression_140</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1406365</v>
+      </c>
+    </row>
+    <row r="20" ht="13.8" customHeight="1" s="7">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>44357.87006596065</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>regression_141</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.1536477666666667</v>
+      </c>
+    </row>
+    <row r="21" ht="13.8" customHeight="1" s="7">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44357.87488490741</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>regression_142</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.4838794666666667</v>
+      </c>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="7">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44357.87575676736</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>regression_143</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>269</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>269</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1392941833333333</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="7">
+      <c r="B23" s="9" t="n"/>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" s="7">
+      <c r="B24" s="9" t="n"/>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" s="7">
+      <c r="B25" s="9" t="n"/>
+    </row>
+    <row r="26" ht="13.8" customHeight="1" s="7"/>
+    <row r="27" ht="13.8" customHeight="1" s="7"/>
+    <row r="28" ht="13.8" customHeight="1" s="7"/>
+    <row r="29" ht="13.8" customHeight="1" s="7"/>
+    <row r="30" ht="13.8" customHeight="1" s="7"/>
+    <row r="31" ht="13.8" customHeight="1" s="7"/>
+    <row r="32" ht="13.8" customHeight="1" s="7"/>
+    <row r="33" ht="13.8" customHeight="1" s="7"/>
+    <row r="34" ht="13.8" customHeight="1" s="7"/>
+    <row r="35" ht="13.8" customHeight="1" s="7"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1007,435 +1154,435 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="12.16" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="12.16" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44351.78557585648</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>123_beta</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44351.78557585648</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>124_beta</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44353.89944854167</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>125_beta</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44353.89944854167</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>126_beta</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="D5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44353.89944854167</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>127_beta</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="G6" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44353.89944854167</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>128_beta</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="G7" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44353.89944854167</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>129_beta</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="G8" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>44353.89944854167</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>130_beta</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="G9" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>44353.89944854167</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>131_beta</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="D10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>44355.67588584491</v>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>132_beta</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="D11" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>44355.82550284722</v>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>133_beta</t>
         </is>
       </c>
-      <c r="D12" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="D12" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>44355.82716422454</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>134_beta</t>
         </is>
       </c>
-      <c r="D13" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="D13" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="7">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>44356.75332052083</v>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>135_beta</t>
         </is>
       </c>
-      <c r="D14" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="D14" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="7">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>44356.75493252314</v>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>136_beta</t>
         </is>
       </c>
-      <c r="D15" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
-    </row>
-    <row r="1048576" ht="15" customHeight="1" s="6"/>
+      <c r="D15" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="7">
+      <c r="B16" s="9" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1457,421 +1604,445 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="12.16" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="12.16" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44351.79937943287</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>123_live</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44353.8664272338</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>124_live</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44353.89075560185</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>125_live</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44353.89075560185</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>126_live</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="D5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44353.89075560185</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>127_live</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="G6" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44353.89075560185</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>128_live</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="G7" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44353.89075560185</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>129_live</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="G8" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>44353.89075560185</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>130_live</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="G9" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2021-06-06</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>44353.89075560185</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>131_live</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="D10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>44355.77731765046</v>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>132_live</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="D11" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>44355.78111623842</v>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>133_live</t>
         </is>
       </c>
-      <c r="D12" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="n">
+      <c r="D12" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>44355.7816244213</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>134_live</t>
         </is>
       </c>
-      <c r="D13" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="D13" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="7">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>44357.00449634259</v>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>145_live</t>
         </is>
       </c>
-      <c r="D14" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
+      <c r="D14" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="7">
+      <c r="B15" s="9" t="n"/>
+      <c r="D15" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="7">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>44357.78865645833</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>145_livetest</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>3.912041583333334</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1894,406 +2065,406 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="12.16" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="12.16" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44351.80435353009</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>123_india</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44351.80435353009</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>124_india</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44354.39802427083</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>125_india</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44354.40320390046</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>126_india</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="D5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44354.40320390046</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>127_india</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="G6" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44354.40320390046</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>128_india</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="G7" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44354.40320390046</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>129_india</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="G8" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>44354.63274570602</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>130_india</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="G9" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>44354.63371548611</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>131_india</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="D10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>44354.63371548611</v>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>132_india</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="D11" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>44354.63371548611</v>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>133_india</t>
         </is>
       </c>
-      <c r="D12" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="D12" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>44354.63371548611</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>134_india</t>
         </is>
       </c>
-      <c r="D13" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
+      <c r="D13" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="D14" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="D15" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1048576" ht="15" customHeight="1" s="6"/>
+    <row r="14" ht="13.8" customHeight="1" s="7">
+      <c r="D14" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="7">
+      <c r="D15" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1364,7 +1364,7 @@
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="8" t="n">
         <v>44363.68051387731</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
@@ -1386,39 +1386,85 @@
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n">
-        <v>44363.78083806514</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" s="8" t="n">
+        <v>44363.78083806713</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>269</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>266</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>4.24</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>44364.54191730324</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>145_data_hstry</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>4.28</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44364.58163298016</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>145_hstry_data</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" t="n">
+        <v>268</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.11</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
       <c r="B13" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -760,29 +760,29 @@
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B10" s="10" t="n">
-        <v>44365.48993515239</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>44365.48993515046</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>145_fnltstfrdy</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>269</v>
-      </c>
-      <c r="E10" t="n">
-        <v>269</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1542,8 +1542,31 @@
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44365.76183034868</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>145_lstrnfdy</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.77</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
       <c r="B15" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -787,31 +787,193 @@
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44368.70706356481</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>145_mndyto</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>5.58</v>
+      </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44371.59894958333</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>146_fsttst</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>239</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>12.06</v>
+      </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44372.69417703704</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_replica</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.85</v>
+      </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44372.81073905092</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_msttomst</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44375.513453125</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>146_thrdcycle</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.39</v>
+      </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44375.71650173611</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>146_rgrsncycle</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>5.86</v>
+      </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="6">
-      <c r="B17" s="8" t="n"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44376.26479398148</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>5.17</v>
+      </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
       <c r="B18" s="8" t="n"/>
@@ -1120,7 +1282,31 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="6">
-      <c r="B9" s="8" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>44376.57743056455</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>146_beta</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" t="n">
+        <v>269</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.14</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="6">
       <c r="B10" s="8" t="n"/>
@@ -1542,15 +1728,15 @@
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B14" s="10" t="n">
-        <v>44365.76183034868</v>
-      </c>
-      <c r="C14" t="inlineStr">
+        <v>44365.76183034722</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>145_lstrnfdy</t>
         </is>
@@ -1558,22 +1744,69 @@
       <c r="D14" s="9" t="n">
         <v>269</v>
       </c>
-      <c r="E14" t="n">
-        <v>269</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="E14" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>3.77</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44369.78935391203</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.77</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44369.92288893519</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>145_vndtstrn</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>3.74</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -95,7 +96,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -127,6 +128,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,13 +978,85 @@
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
-      <c r="B18" s="8" t="n"/>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44378.66095719908</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>146_replicawrtrd</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>264</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>6.53</v>
+      </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="B19" s="8" t="n"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-05</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44382.672408125</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>146_htfrplica</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>4.94</v>
+      </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="6">
-      <c r="B20" s="8" t="n"/>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-06</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44383.74619379629</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="6">
       <c r="B21" s="8" t="n"/>
@@ -1282,29 +1356,29 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
       <c r="B9" s="10" t="n">
-        <v>44376.57743056455</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>44376.57743056713</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>146_beta</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E9" t="n">
-        <v>269</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="D9" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>4.14</v>
       </c>
     </row>
@@ -1348,7 +1422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
@@ -1806,6 +1880,114 @@
       </c>
       <c r="G16" s="5" t="n">
         <v>3.74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44376.84060686343</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>266</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44376.87771510416</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>146_faltst</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>44379.64925971065</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>44385.2812114014</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>269</v>
+      </c>
+      <c r="E20" t="n">
+        <v>265</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.28</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -96,7 +95,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -110,6 +109,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -490,614 +492,778 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="17.68" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="17.68" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Regression_138</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>3.89</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Regression_139</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>3.45</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Regression_140</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>4.66</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Regression_141</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>260</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="13.8" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44355.86976752315</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Regression_142</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="13.8" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44355.87199148148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>Regression_143</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>3.99</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="13.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44356.64708844908</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Regression_144</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>4.22</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>44364.77521091435</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>145_hstrdata</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>5.35</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="9" t="n">
         <v>44365.48993515046</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>145_fnltstfrdy</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="D10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="13.8" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2021-06-21</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9" t="n">
         <v>44368.70706356481</v>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>145_mndyto</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
+      <c r="D11" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>5.58</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="13.8" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2021-06-24</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="9" t="n">
         <v>44371.59894958333</v>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>146_fsttst</t>
         </is>
       </c>
-      <c r="D12" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E12" s="5" t="n">
+      <c r="D12" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>239</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="6" t="n">
         <v>12.06</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="13.8" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="9" t="n">
         <v>44372.69417703704</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>146_replica</t>
         </is>
       </c>
-      <c r="D13" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
+      <c r="D13" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>4.85</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="13.8" customHeight="1" s="7">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="9" t="n">
         <v>44372.81073905092</v>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>146_msttomst</t>
         </is>
       </c>
-      <c r="D14" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="n">
+      <c r="D14" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
         <v>5.43</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="15" ht="13.8" customHeight="1" s="7">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="9" t="n">
         <v>44375.513453125</v>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>146_thrdcycle</t>
         </is>
       </c>
-      <c r="D15" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="n">
+      <c r="D15" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
         <v>5.39</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="A16" s="8" t="inlineStr">
+    <row r="16" ht="13.8" customHeight="1" s="7">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="9" t="n">
         <v>44375.71650173611</v>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>146_rgrsncycle</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E16" s="5" t="n">
+      <c r="D16" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E16" s="6" t="n">
         <v>267</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="6" t="n">
         <v>5.86</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="6">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="17" ht="13.8" customHeight="1" s="7">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="9" t="n">
         <v>44376.26479398148</v>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>146_finalrun</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5" t="n">
+      <c r="D17" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
         <v>5.17</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="6">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="18" ht="13.8" customHeight="1" s="7">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>2021-07-01</t>
         </is>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="9" t="n">
         <v>44378.66095719908</v>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>146_replicawrtrd</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E18" s="5" t="n">
+      <c r="D18" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E18" s="6" t="n">
         <v>264</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="6" t="n">
         <v>6.53</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="19" ht="13.8" customHeight="1" s="7">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>2021-07-05</t>
         </is>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="9" t="n">
         <v>44382.672408125</v>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>146_htfrplica</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="n">
+      <c r="D19" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>4.94</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="6">
-      <c r="A20" s="5" t="inlineStr">
+    <row r="20" ht="13.8" customHeight="1" s="7">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>2021-07-06</t>
         </is>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="9" t="n">
         <v>44383.74619379629</v>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>146_infrachngs</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E20" s="5" t="n">
+      <c r="D20" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E20" s="6" t="n">
         <v>259</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="6" t="n">
         <v>12.1</v>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="6">
-      <c r="B21" s="8" t="n"/>
-    </row>
-    <row r="22" ht="13.8" customHeight="1" s="6">
-      <c r="B22" s="8" t="n"/>
-    </row>
-    <row r="23" ht="13.8" customHeight="1" s="6">
-      <c r="B23" s="8" t="n"/>
-    </row>
-    <row r="24" ht="13.8" customHeight="1" s="6">
-      <c r="B24" s="8" t="n"/>
-    </row>
-    <row r="25" ht="13.8" customHeight="1" s="6">
-      <c r="B25" s="8" t="n"/>
-    </row>
-    <row r="26" ht="13.8" customHeight="1" s="6">
-      <c r="B26" s="8" t="n"/>
-    </row>
-    <row r="27" ht="13.8" customHeight="1" s="6">
-      <c r="B27" s="8" t="n"/>
-    </row>
-    <row r="28" ht="13.8" customHeight="1" s="6">
-      <c r="B28" s="8" t="n"/>
-    </row>
-    <row r="29" ht="13.8" customHeight="1" s="6">
-      <c r="B29" s="8" t="n"/>
-    </row>
-    <row r="30" ht="13.8" customHeight="1" s="6">
-      <c r="B30" s="8" t="n"/>
-    </row>
-    <row r="31" ht="13.8" customHeight="1" s="6">
-      <c r="B31" s="8" t="n"/>
-    </row>
-    <row r="32" ht="13.8" customHeight="1" s="6"/>
-    <row r="33" ht="13.8" customHeight="1" s="6"/>
-    <row r="34" ht="13.8" customHeight="1" s="6"/>
-    <row r="35" ht="13.8" customHeight="1" s="6"/>
-    <row r="36" ht="13.8" customHeight="1" s="6"/>
-    <row r="37" ht="13.8" customHeight="1" s="6"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
+    <row r="21" ht="13.8" customHeight="1" s="7">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-19</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>44396.45678917824</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>146_vinodtest</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="7">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-20</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44397.70878025463</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>147_firsttest</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="7">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44399.62041466435</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>147_tolive</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" s="7">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>2021-08-14</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44422.56569221065</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>148_regression</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" s="7">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44440.7248746875</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>149_fstcyc</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="26" ht="13.8" customHeight="1" s="7">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44442.48007232639</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>149_regression</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="27" ht="13.8" customHeight="1" s="7">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44475.69082060185</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>151_regression</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8" customHeight="1" s="7">
+      <c r="B28" s="9" t="n"/>
+    </row>
+    <row r="29" ht="13.8" customHeight="1" s="7">
+      <c r="B29" s="9" t="n"/>
+    </row>
+    <row r="30" ht="13.8" customHeight="1" s="7"/>
+    <row r="31" ht="13.8" customHeight="1" s="7"/>
+    <row r="32" ht="13.8" customHeight="1" s="7"/>
+    <row r="33" ht="13.8" customHeight="1" s="7"/>
+    <row r="34" ht="13.8" customHeight="1" s="7"/>
+    <row r="35" ht="13.8" customHeight="1" s="7"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1117,298 +1283,414 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>beta_138</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>267</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>3.89</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>beta_139</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>260</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>3.45</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>beta_140</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>4.66</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>beta_141</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>260</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44355.86976752315</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>beta_142</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>209</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44355.87199148148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>beta_143</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>3.99</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44356.64708844908</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>beta_144</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <v>44376.57743056713</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>146_beta</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>4.14</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
-    </row>
-    <row r="1048576" ht="15" customHeight="1" s="6"/>
+    <row r="10" ht="15" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>44399.86077364584</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>147_beta</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>44400.42227244213</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>147_frdy</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>44424.5399928125</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>148_beta</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>44442.53218819445</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>149_beta</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="7">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-07</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>44476.54824569444</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>151_beta</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="7">
+      <c r="B15" s="9" t="n"/>
+      <c r="D15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="7">
+      <c r="B16" s="9" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1422,572 +1704,815 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="11.06" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="11.06" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>live_138</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>3.89</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>live_139</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <v>3.45</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>live_140</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>4.66</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>live_141</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>260</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="13.8" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44355.86976752315</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>live_142</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="13.8" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44355.87199148148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>live_143</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>3.99</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="13.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44356.64708844908</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>live_144</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>44363.68051387731</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>live_145_hotfix</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>266</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="6" t="n">
         <v>4.41</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>44363.78083806713</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="D10" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>266</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="6" t="n">
         <v>4.24</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>44364.54191730324</v>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>145_data_hstry</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="D11" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <v>267</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="6" t="n">
         <v>4.28</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>44364.58163297454</v>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>145_hstry_data</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E12" s="5" t="n">
+      <c r="D12" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="6" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>44365.42967071759</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>145_frdyvn</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
+      <c r="D13" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>3.78</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="7">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="9" t="n">
         <v>44365.76183034722</v>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>145_lstrnfdy</t>
         </is>
       </c>
-      <c r="D14" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="n">
+      <c r="D14" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
         <v>3.77</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="7">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>2021-06-22</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="9" t="n">
         <v>44369.78935391203</v>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>145_hotfixtue</t>
         </is>
       </c>
-      <c r="D15" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="n">
+      <c r="D15" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
         <v>3.77</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="A16" s="5" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="7">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>2021-06-22</t>
         </is>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="9" t="n">
         <v>44369.92288893519</v>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>145_vndtstrn</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="n">
+      <c r="D16" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>3.74</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="7">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="9" t="n">
         <v>44376.84060686343</v>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>146_livetst</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E17" s="5" t="n">
+      <c r="D17" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E17" s="6" t="n">
         <v>266</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="6" t="n">
         <v>4.71</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="7">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="9" t="n">
         <v>44376.87771510416</v>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>146_faltst</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5" t="n">
+      <c r="D18" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>4.07</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="7">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>2021-07-02</t>
         </is>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="9" t="n">
         <v>44379.64925971065</v>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>146_infrachngs</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="n">
+      <c r="D19" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="7">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>2021-07-08</t>
         </is>
       </c>
-      <c r="B20" s="11" t="n">
-        <v>44385.2812114014</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" s="9" t="n">
+        <v>44385.28121140046</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>146_earlyip</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>269</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E20" s="6" t="n">
         <v>265</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="6" t="n">
         <v>5.28</v>
+      </c>
+    </row>
+    <row r="21" ht="13.8" customHeight="1" s="7">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44400.69650005787</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>147_live</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="7">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-29</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44406.59084304398</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>147_sdnchngs</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="7">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44424.89529086806</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>148_live</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="n">
+        <v>44426.73620480324</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>148_hotfixwed</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>44432.76038748842</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>148_htftw</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>2021-09-06</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>44445.84259170139</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>149htflvapi</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>2021-09-09</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>44448.56554234953</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>149htfxtw</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>263</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="n">
+        <v>44467.68711954861</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>150htfxwe</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-07</t>
+        </is>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>44476.93711188657</v>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>151_live</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>
@@ -2009,266 +2534,266 @@
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>india_138</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>3.89</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44351.43782091435</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>india_139</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <v>3.45</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>india_140</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>4.66</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44354.39470060185</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>india_141</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="13.8" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44355.86976752315</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>india_142</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="13.8" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44355.87199148148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>india_143</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>3.99</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="13.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44356.64708844908</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>india_144</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="B9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-    </row>
-    <row r="1048576" ht="15" customHeight="1" s="6"/>
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="B9" s="9" t="n"/>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="B10" s="9" t="n"/>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="7">
+      <c r="B11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="7">
+      <c r="B12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="7">
+      <c r="B13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="7">
+      <c r="B14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="7">
+      <c r="B15" s="9" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -492,13 +493,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
@@ -1250,12 +1251,86 @@
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="7">
-      <c r="B28" s="9" t="n"/>
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44495.64163151621</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>152_fstcycle</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>263</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>6.52</v>
+      </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="7">
-      <c r="B29" s="9" t="n"/>
-    </row>
-    <row r="30" ht="13.8" customHeight="1" s="7"/>
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44496.64047292824</v>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>152_scndcycle</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="30" ht="13.8" customHeight="1" s="7">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>44497.38131106481</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>152_fnlrgrsn</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
     <row r="31" ht="13.8" customHeight="1" s="7"/>
     <row r="32" ht="13.8" customHeight="1" s="7"/>
     <row r="33" ht="13.8" customHeight="1" s="7"/>
@@ -1283,7 +1358,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
@@ -1684,11 +1759,58 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="7">
-      <c r="B15" s="9" t="n"/>
-      <c r="D15" s="10" t="n"/>
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>44497.61923534722</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>152_beta</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.35</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="7">
-      <c r="B16" s="9" t="n"/>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>44497.69705530092</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>152_betachgs</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>5.28</v>
+      </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
@@ -1704,13 +1826,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
@@ -2513,6 +2635,33 @@
       </c>
       <c r="G29" s="6" t="n">
         <v>6.08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>44497.85545837627</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>152_livetest</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>269</v>
+      </c>
+      <c r="E30" t="n">
+        <v>268</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.63</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2683,7 @@
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="6" min="2" max="2"/>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -1331,11 +1331,573 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="7"/>
-    <row r="32" ht="13.8" customHeight="1" s="7"/>
-    <row r="33" ht="13.8" customHeight="1" s="7"/>
-    <row r="34" ht="13.8" customHeight="1" s="7"/>
-    <row r="35" ht="13.8" customHeight="1" s="7"/>
+    <row r="31" ht="13.8" customHeight="1" s="7">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>44517.6023143287</v>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>153rsgn</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="7">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="n">
+        <v>44518.42095861111</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>153fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="33" ht="13.8" customHeight="1" s="7">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-29</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>44529.74459321759</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>153_htfix</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>263</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="34" ht="13.8" customHeight="1" s="7">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-03</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="n">
+        <v>44533.71769680556</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>154_scndrgsn</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="35" ht="13.8" customHeight="1" s="7">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="n">
+        <v>44536.4428</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>154_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="n">
+        <v>44552.41040861111</v>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>sprint155</t>
+        </is>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>44564.62398364583</v>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>lodash</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>248</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="n">
+        <v>44578.52386765046</v>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>frstrgsn156</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>44581.40031931713</v>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>156_fnlrsgn</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B40" s="12" t="n">
+        <v>44589.58420025463</v>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>44599.76592138889</v>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>secondcycle_157</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="n">
+        <v>44600.41213501157</v>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>157_fnl</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>44616.48866361111</v>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>123ghj</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="n">
+        <v>44616.49095258102</v>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>4567ghj</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>44616.49321247685</v>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>12143sdsdd</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="n">
+        <v>44616.50936747685</v>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>asa2323</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="n">
+        <v>44616.52380564815</v>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>www232</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="n">
+        <v>44616.52633429398</v>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>3456dfg</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="n">
+        <v>44616.53428244213</v>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>1345_hhh</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="n">
+        <v>44616.54219115741</v>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>12324sdd</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="n">
+        <v>44616.55075899666</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>asa2332</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>269</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>269</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
@@ -1352,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -1812,6 +2374,141 @@
         <v>5.28</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>44518.57093840278</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>153_beta</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="n">
+        <v>44536.54220427083</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>154_beta</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>44553.51663828704</v>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>155_beta</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B20" s="12" t="n">
+        <v>44581.53406202546</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>156_beta</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>44600.62059473379</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>157_beta</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>262</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>14.03</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1826,7 +2523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -2638,30 +3335,246 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
       <c r="B30" s="12" t="n">
-        <v>44497.85545837627</v>
-      </c>
-      <c r="C30" t="inlineStr">
+        <v>44497.85545837963</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>152_livetest</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>269</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E30" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="6" t="n">
         <v>4.63</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>44523.4393272338</v>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>153_live</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="n">
+        <v>44536.86230123843</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>154_live</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-09</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>44539.78338771991</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>154htfxx</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="n">
+        <v>44553.78829818287</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>155_live</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="n">
+        <v>44557.70460170139</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>155hftfxx</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="n">
+        <v>44581.81741920139</v>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>156_live</t>
+        </is>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>44600.85738260417</v>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>157_live</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="n">
+        <v>44616.52923978009</v>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>453_gj</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -1872,30 +1872,111 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>2022-02-24</t>
         </is>
       </c>
       <c r="B51" s="12" t="n">
-        <v>44616.55075899666</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>44616.55075899306</v>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>asa2332</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>269</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>269</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="D51" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G51" s="6" t="n">
         <v>0.26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B52" s="12" t="n">
+        <v>44616.70045383102</v>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>test1234</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="n">
+        <v>44617.49754053241</v>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>test158</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="n">
+        <v>44617.52886187014</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>test158</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>269</v>
+      </c>
+      <c r="E54" t="n">
+        <v>74</v>
+      </c>
+      <c r="F54" t="n">
+        <v>195</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -1953,30 +1953,273 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
         <is>
           <t>2022-02-25</t>
         </is>
       </c>
       <c r="B54" s="12" t="n">
-        <v>44617.52886187014</v>
-      </c>
-      <c r="C54" t="inlineStr">
+        <v>44617.528861875</v>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>test158</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>269</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D54" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E54" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="6" t="n">
         <v>195</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="6" t="n">
         <v>3.21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B55" s="12" t="n">
+        <v>44622.66636108796</v>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>158scndcycle</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="6" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B56" s="12" t="n">
+        <v>44623.43222981482</v>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>158fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="n">
+        <v>44644.71256053241</v>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>159fstcycle</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B58" s="12" t="n">
+        <v>44645.6537002662</v>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>159scndcycle</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="n">
+        <v>44648.3788731713</v>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>159fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="n">
+        <v>44649.68913925926</v>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>nearlocationcloud</t>
+        </is>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="n">
+        <v>44650.50402041667</v>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>160coludtest</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>256</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G61" s="6" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="n">
+        <v>44659.63499826389</v>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>160fnlcould</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>263</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="n">
+        <v>44663.39910646991</v>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>160fnltest</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6" t="n">
+        <v>5.16</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -1995,7 +2238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -2590,6 +2833,87 @@
         <v>14.03</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n">
+        <v>44623.54439109954</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>158_beta</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="n">
+        <v>44648.54749449074</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>159beta</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="n">
+        <v>44663.55530815972</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>160_beta</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2604,7 +2928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -3656,6 +3980,141 @@
       </c>
       <c r="G38" s="6" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>44623.84750377315</v>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>158_live</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
+      </c>
+      <c r="B40" s="12" t="n">
+        <v>44635.80563694445</v>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>htfx158</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>44643.75048181713</v>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>htfxtata123</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="n">
+        <v>44648.80712358796</v>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>159live</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>44663.80574385681</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>160_live</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>269</v>
+      </c>
+      <c r="E43" t="n">
+        <v>268</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.86</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -2222,6 +2222,168 @@
         <v>5.16</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B64" s="12" t="n">
+        <v>44736.66664202546</v>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>163_flowwiintt</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B65" s="12" t="n">
+        <v>44739.67812832176</v>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>163_finalrun</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="n">
+        <v>44740.33050710648</v>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>163_relday</t>
+        </is>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B67" s="12" t="n">
+        <v>44755.4217068287</v>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>164_fstcycle</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" s="6" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="n">
+        <v>44755.60633125</v>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>164_scndcycle</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B69" s="12" t="n">
+        <v>44756.480764375</v>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>164finalrun</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
@@ -2238,7 +2400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -2914,6 +3076,60 @@
         <v>4.04</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>44740.50403482639</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>163_beta</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>44756.52122082176</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>164_beta</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2928,7 +3144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4091,30 +4307,84 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="6" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
       <c r="B43" s="12" t="n">
-        <v>44663.80574385681</v>
-      </c>
-      <c r="C43" t="inlineStr">
+        <v>44663.80574385417</v>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>160_live</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>269</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E43" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="6" t="n">
         <v>3.86</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="n">
+        <v>44740.83918921297</v>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>163_live</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>44756.80692301049</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>164_live</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>269</v>
+      </c>
+      <c r="E45" t="n">
+        <v>268</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -2384,6 +2384,276 @@
         <v>4.78</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="n">
+        <v>44761.50344545139</v>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>3133d</t>
+        </is>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G70" s="6" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B71" s="12" t="n">
+        <v>44761.50466866898</v>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>124s</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="n">
+        <v>44761.50676752315</v>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>131ds</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B73" s="12" t="n">
+        <v>44775.63534686343</v>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>165_fstcycle</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="n">
+        <v>44777.37942087963</v>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>165_finalrun</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B75" s="12" t="n">
+        <v>44795.64787594907</v>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>166fstcycle</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" s="6" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="n">
+        <v>44796.65294547454</v>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>166scndcyle</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>211</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>16.81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="n">
+        <v>44796.8913643287</v>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>166cyclescnd</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="6" t="n">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="n">
+        <v>44798.86474379629</v>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>hotfix166</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+      <c r="B79" s="12" t="n">
+        <v>44801.74069929398</v>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>sundhtfx166</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
@@ -2400,7 +2670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -3130,6 +3400,60 @@
         <v>4.2</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>44777.54708997686</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>165beta</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="n">
+        <v>44797.51160618055</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>166_beta</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3144,7 +3468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4361,29 +4685,137 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
       <c r="B45" s="12" t="n">
-        <v>44756.80692301049</v>
-      </c>
-      <c r="C45" t="inlineStr">
+        <v>44756.80692300926</v>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>164_live</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>269</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E45" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="6" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="n">
+        <v>44777.80374391204</v>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>165_live</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="n">
+        <v>44797.90853664352</v>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>166_live</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="n">
+        <v>44798.87621078704</v>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>166hotfix</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="n">
+        <v>44801.86460017557</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>166sundyhtfx</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>269</v>
+      </c>
+      <c r="E49" t="n">
+        <v>268</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
         <v>3.8</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -3468,7 +3468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4793,30 +4793,57 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="6" t="inlineStr">
         <is>
           <t>2022-08-28</t>
         </is>
       </c>
       <c r="B49" s="12" t="n">
-        <v>44801.86460017557</v>
-      </c>
-      <c r="C49" t="inlineStr">
+        <v>44801.86460017361</v>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>166sundyhtfx</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>269</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E49" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="6" t="n">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="n">
+        <v>44805.75095284091</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>htf166sep</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>269</v>
+      </c>
+      <c r="E50" t="n">
+        <v>264</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.87</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -3468,7 +3468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4820,30 +4820,57 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="6" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
       <c r="B50" s="12" t="n">
-        <v>44805.75095284091</v>
-      </c>
-      <c r="C50" t="inlineStr">
+        <v>44805.75095283565</v>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>htf166sep</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>269</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="D50" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E50" s="6" t="n">
         <v>264</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="6" t="n">
         <v>4.87</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="n">
+        <v>44810.92359607792</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>htfx166tue</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>269</v>
+      </c>
+      <c r="E51" t="n">
+        <v>268</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.67</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -2654,6 +2654,87 @@
         <v>4.83</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="n">
+        <v>44820.6029044676</v>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>fstcyc167</t>
+        </is>
+      </c>
+      <c r="D80" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E80" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B81" s="12" t="n">
+        <v>44823.61774643519</v>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>scndcycle167</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="n">
+        <v>44824.36184575231</v>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>finalrun167</t>
+        </is>
+      </c>
+      <c r="D82" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E82" s="6" t="n">
+        <v>262</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
@@ -2670,7 +2751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -3454,6 +3535,33 @@
         <v>4.32</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>44824.50985645134</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>beta167</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>269</v>
+      </c>
+      <c r="E29" t="n">
+        <v>268</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3468,7 +3576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4847,30 +4955,57 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>2022-09-06</t>
         </is>
       </c>
       <c r="B51" s="12" t="n">
-        <v>44810.92359607792</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>44810.92359607639</v>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>htfx166tue</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>269</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="D51" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E51" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="6" t="n">
         <v>3.67</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B52" s="12" t="n">
+        <v>44818.40202697917</v>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>livehtfxsep166</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>3.92</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -2735,6 +2735,195 @@
         <v>7.66</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B83" s="12" t="n">
+        <v>44844.59091978009</v>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>scndcycl168</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E83" s="6" t="n">
+        <v>262</v>
+      </c>
+      <c r="F83" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G83" s="6" t="n">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="n">
+        <v>44845.38429049768</v>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>168fnlrun</t>
+        </is>
+      </c>
+      <c r="D84" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E84" s="6" t="n">
+        <v>262</v>
+      </c>
+      <c r="F84" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B85" s="12" t="n">
+        <v>44867.66006019676</v>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>scndcycle169</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F85" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="n">
+        <v>44868.44035378472</v>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>finalrun169</t>
+        </is>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B87" s="12" t="n">
+        <v>44881.50579800926</v>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>crpo1htfx169</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="n">
+        <v>44890.79532064815</v>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>170cyclefst</t>
+        </is>
+      </c>
+      <c r="D88" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="n">
+        <v>44893.50998433497</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>170scndcycle</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>269</v>
+      </c>
+      <c r="E89" t="n">
+        <v>269</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
@@ -2751,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -3536,30 +3725,84 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B29" s="12" t="n">
-        <v>44824.50985645134</v>
-      </c>
-      <c r="C29" t="inlineStr">
+        <v>44824.50985644676</v>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>beta167</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>269</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E29" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="6" t="n">
         <v>4.22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>44845.54382474537</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>beta168</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>44868.51668144676</v>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>beta169</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
@@ -3576,7 +3819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -5006,6 +5249,249 @@
       </c>
       <c r="G52" s="6" t="n">
         <v>3.92</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="n">
+        <v>44824.86265006944</v>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>live167</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="n">
+        <v>44824.93834337963</v>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>rerun167</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B55" s="12" t="n">
+        <v>44830.86283369213</v>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>htfx167</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
+      </c>
+      <c r="B56" s="12" t="n">
+        <v>44840.91756053241</v>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>htfxthu167</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="n">
+        <v>44845.84467827546</v>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>live168</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B58" s="12" t="n">
+        <v>44851.8042059838</v>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>hfx168</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="n">
+        <v>44860.79510541667</v>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>htfx182</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="n">
+        <v>44868.82513840278</v>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>live169</t>
+        </is>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="n">
+        <v>44881.55740778935</v>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>htfxnov169</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6" t="n">
+        <v>4.03</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -2898,30 +2898,138 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="6" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B89" s="12" t="n">
-        <v>44893.50998433497</v>
-      </c>
-      <c r="C89" t="inlineStr">
+        <v>44893.50998434028</v>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
         <is>
           <t>170scndcycle</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>269</v>
-      </c>
-      <c r="E89" t="n">
-        <v>269</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
+      <c r="D89" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E89" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6" t="n">
         <v>4.93</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="n">
+        <v>44914.46206311342</v>
+      </c>
+      <c r="C90" s="6" t="inlineStr">
+        <is>
+          <t>finalrun171</t>
+        </is>
+      </c>
+      <c r="D90" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E90" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="F90" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" s="6" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="n">
+        <v>44945.576031875</v>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>172scndcyle</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="F91" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G91" s="6" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="n">
+        <v>44945.65408471065</v>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>scnd172release</t>
+        </is>
+      </c>
+      <c r="D92" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="6" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="n">
+        <v>44946.39444392361</v>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>finalrun172</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F93" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="6" t="n">
+        <v>5.17</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -2940,7 +3048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -3805,6 +3913,60 @@
         <v>3.96</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="n">
+        <v>44894.53287359954</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>170beta</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>44946.56240434028</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>172beta</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3819,7 +3981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -5492,6 +5654,168 @@
       </c>
       <c r="G61" s="6" t="n">
         <v>4.03</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="n">
+        <v>44894.87870587963</v>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>170live</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="n">
+        <v>44896.75698680556</v>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>170htfxthu</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B64" s="12" t="n">
+        <v>44939.84393375</v>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>172aadharverif</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="B65" s="12" t="n">
+        <v>44943.82936630787</v>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>htfx172jan</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="n">
+        <v>44946.88745541667</v>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>172live</t>
+        </is>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="B67" s="12" t="n">
+        <v>44951.72762466512</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>htfx172wed</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>269</v>
+      </c>
+      <c r="E67" t="n">
+        <v>269</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.93</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -3981,7 +3981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -5792,30 +5792,84 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="6" t="inlineStr">
         <is>
           <t>2023-01-25</t>
         </is>
       </c>
       <c r="B67" s="12" t="n">
-        <v>44951.72762466512</v>
-      </c>
-      <c r="C67" t="inlineStr">
+        <v>44951.72762466435</v>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>htfx172wed</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>269</v>
-      </c>
-      <c r="E67" t="n">
-        <v>269</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="D67" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6" t="n">
         <v>3.93</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="n">
+        <v>44960.6133114699</v>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>172htfxthree</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="B69" s="12" t="n">
+        <v>44963.75031220534</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>172fourhtfx</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>269</v>
+      </c>
+      <c r="E69" t="n">
+        <v>269</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.31</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -3032,6 +3032,60 @@
         <v>5.17</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="n">
+        <v>44973.76391283565</v>
+      </c>
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>173cyclefst</t>
+        </is>
+      </c>
+      <c r="D94" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="n">
+        <v>44977.39481481481</v>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>173fnlrun</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E95" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="6" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
@@ -3048,7 +3102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -3967,6 +4021,33 @@
         <v>4.36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="n">
+        <v>44977.57882420139</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>173beta</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3981,7 +4062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -5846,30 +5927,57 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="6" t="inlineStr">
         <is>
           <t>2023-02-06</t>
         </is>
       </c>
       <c r="B69" s="12" t="n">
-        <v>44963.75031220534</v>
-      </c>
-      <c r="C69" t="inlineStr">
+        <v>44963.75031221065</v>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>172fourhtfx</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>269</v>
-      </c>
-      <c r="E69" t="n">
-        <v>269</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="D69" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6" t="n">
         <v>4.31</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="n">
+        <v>44977.83047720879</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>live173</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>269</v>
+      </c>
+      <c r="E70" t="n">
+        <v>268</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.05</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -3086,6 +3086,222 @@
         <v>4.6</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="n">
+        <v>44980.75622256944</v>
+      </c>
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>173hhttffxx</t>
+        </is>
+      </c>
+      <c r="D96" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="n">
+        <v>44994.57150388889</v>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>174fstcycle</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="B98" s="12" t="n">
+        <v>44995.78329828704</v>
+      </c>
+      <c r="C98" s="6" t="inlineStr">
+        <is>
+          <t>174ffiinnalrun</t>
+        </is>
+      </c>
+      <c r="D98" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="n">
+        <v>44998.46071991898</v>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>174finalrun</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F99" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="6" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B100" s="12" t="n">
+        <v>45013.52588585648</v>
+      </c>
+      <c r="C100" s="6" t="inlineStr">
+        <is>
+          <t>175prerun</t>
+        </is>
+      </c>
+      <c r="D100" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="n">
+        <v>45015.70615905093</v>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>175scndcyc</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E101" s="6" t="n">
+        <v>263</v>
+      </c>
+      <c r="F101" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G101" s="6" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B102" s="12" t="n">
+        <v>45016.44203090278</v>
+      </c>
+      <c r="C102" s="6" t="inlineStr">
+        <is>
+          <t>175fnlrun</t>
+        </is>
+      </c>
+      <c r="D102" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E102" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F102" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="6" t="n">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="n">
+        <v>45028.45964890953</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>176fstrtail</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>269</v>
+      </c>
+      <c r="E103" t="n">
+        <v>260</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
@@ -3102,7 +3318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -4048,6 +4264,60 @@
         <v>4.06</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="n">
+        <v>44998.52453083333</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>174beta</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="n">
+        <v>45016.52234857639</v>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>175beta</t>
+        </is>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4062,7 +4332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -5954,30 +6224,192 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="6" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B70" s="12" t="n">
-        <v>44977.83047720879</v>
-      </c>
-      <c r="C70" t="inlineStr">
+        <v>44977.83047721065</v>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>live173</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>269</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="D70" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E70" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="6" t="n">
         <v>4.05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B71" s="12" t="n">
+        <v>44980.83663085648</v>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>173htfxbulkschedule</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="n">
+        <v>44986.68783164352</v>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>173angularvrs</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="B73" s="12" t="n">
+        <v>44987.43015282408</v>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>liveangular173</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="n">
+        <v>44992.73899635416</v>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>174htfxmar</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B75" s="12" t="n">
+        <v>44998.83213166667</v>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>174live</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="6" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="n">
+        <v>45016.78996877315</v>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>175live</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>4.04</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -3276,30 +3276,84 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="6" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
       <c r="B103" s="12" t="n">
-        <v>45028.45964890953</v>
-      </c>
-      <c r="C103" t="inlineStr">
+        <v>45028.45964891204</v>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>176fstrtail</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>269</v>
-      </c>
-      <c r="E103" t="n">
+      <c r="D103" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E103" s="6" t="n">
         <v>260</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103" s="6" t="n">
         <v>6.04</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B104" s="12" t="n">
+        <v>45034.52080172454</v>
+      </c>
+      <c r="C104" s="6" t="inlineStr">
+        <is>
+          <t>176firsttrail</t>
+        </is>
+      </c>
+      <c r="D104" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E104" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G104" s="6" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="n">
+        <v>45034.62628673139</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>176fstscndtr</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>269</v>
+      </c>
+      <c r="E105" t="n">
+        <v>261</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.11</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -3330,30 +3330,84 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="6" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B105" s="12" t="n">
-        <v>45034.62628673139</v>
-      </c>
-      <c r="C105" t="inlineStr">
+        <v>45034.62628673611</v>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
         <is>
           <t>176fstscndtr</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>269</v>
-      </c>
-      <c r="E105" t="n">
+      <c r="D105" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E105" s="6" t="n">
         <v>261</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105" s="6" t="n">
         <v>5.11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B106" s="12" t="n">
+        <v>45035.6895700926</v>
+      </c>
+      <c r="C106" s="6" t="inlineStr">
+        <is>
+          <t>176scndcyc</t>
+        </is>
+      </c>
+      <c r="D106" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E106" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F106" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" s="6" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="n">
+        <v>45036.40526238426</v>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>176fnlruntest</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E107" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6" t="n">
+        <v>4.43</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -3372,7 +3426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -4372,6 +4426,33 @@
         <v>4.52</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>45036.50866017361</v>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>176beta</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4386,7 +4467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -6464,6 +6545,60 @@
       </c>
       <c r="G76" s="6" t="n">
         <v>4.04</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-03</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="n">
+        <v>45049.6852472338</v>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>176firstsycle</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="6" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="n">
+        <v>45054.5333169482</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>176htfxtrl</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>269</v>
+      </c>
+      <c r="E78" t="n">
+        <v>266</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4.49</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -3408,6 +3408,114 @@
       </c>
       <c r="G107" s="6" t="n">
         <v>4.43</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="B108" s="12" t="n">
+        <v>45055.67239</v>
+      </c>
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>176htfxchanges</t>
+        </is>
+      </c>
+      <c r="D108" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E108" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F108" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" s="6" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="n">
+        <v>45055.69151628472</v>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>176scndhtfx</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E109" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F109" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" s="6" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="B110" s="12" t="n">
+        <v>45057.72868366898</v>
+      </c>
+      <c r="C110" s="6" t="inlineStr">
+        <is>
+          <t>176fxhh</t>
+        </is>
+      </c>
+      <c r="D110" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E110" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F110" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" s="6" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="n">
+        <v>45058.76151206988</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>177fstcycle</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>269</v>
+      </c>
+      <c r="E111" t="n">
+        <v>263</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7.72</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -6575,29 +6683,29 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="6" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
       <c r="B78" s="12" t="n">
-        <v>45054.5333169482</v>
-      </c>
-      <c r="C78" t="inlineStr">
+        <v>45054.53331694444</v>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>176htfxtrl</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>269</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="D78" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E78" s="6" t="n">
         <v>266</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78" s="6" t="n">
         <v>4.49</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -3492,30 +3492,273 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="6" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
       <c r="B111" s="12" t="n">
-        <v>45058.76151206988</v>
-      </c>
-      <c r="C111" t="inlineStr">
+        <v>45058.76151207176</v>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
         <is>
           <t>177fstcycle</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>269</v>
-      </c>
-      <c r="E111" t="n">
+      <c r="D111" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E111" s="6" t="n">
         <v>263</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111" s="6" t="n">
         <v>7.72</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B112" s="12" t="n">
+        <v>45062.8158881713</v>
+      </c>
+      <c r="C112" s="6" t="inlineStr">
+        <is>
+          <t>177ffstcycle</t>
+        </is>
+      </c>
+      <c r="D112" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E112" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F112" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="6" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="n">
+        <v>45063.64916454861</v>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>177scncycle</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E113" s="6" t="n">
+        <v>262</v>
+      </c>
+      <c r="F113" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G113" s="6" t="n">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B114" s="12" t="n">
+        <v>45064.36059413195</v>
+      </c>
+      <c r="C114" s="6" t="inlineStr">
+        <is>
+          <t>177fnlrun</t>
+        </is>
+      </c>
+      <c r="D114" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E114" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F114" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="6" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B115" s="12" t="n">
+        <v>45069.65368712963</v>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>177htfx</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F115" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="6" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="B116" s="12" t="n">
+        <v>45070.61323082176</v>
+      </c>
+      <c r="C116" s="6" t="inlineStr">
+        <is>
+          <t>177dob</t>
+        </is>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E116" s="6" t="n">
+        <v>263</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="n">
+        <v>45071.56405571759</v>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>178dayone</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="F117" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B118" s="12" t="n">
+        <v>45072.56548528935</v>
+      </c>
+      <c r="C118" s="6" t="inlineStr">
+        <is>
+          <t>178daytwo</t>
+        </is>
+      </c>
+      <c r="D118" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E118" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F118" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="6" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B119" s="12" t="n">
+        <v>45075.46286304398</v>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>178daythree</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B120" s="12" t="n">
+        <v>45089.67016552043</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>178daytest</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>269</v>
+      </c>
+      <c r="E120" t="n">
+        <v>264</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>6.06</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -3534,7 +3777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -4561,6 +4804,33 @@
         <v>3.84</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="n">
+        <v>45064.4915340625</v>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>177beta</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4575,7 +4845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -6707,6 +6977,87 @@
       </c>
       <c r="G78" s="6" t="n">
         <v>4.49</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B79" s="12" t="n">
+        <v>45065.57772622685</v>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>177live</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="n">
+        <v>45069.73734783565</v>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>177htfx</t>
+        </is>
+      </c>
+      <c r="D80" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E80" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B81" s="12" t="n">
+        <v>45069.92171828703</v>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>177htfxtest</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>3.81</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -3735,30 +3735,84 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="6" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B120" s="12" t="n">
-        <v>45089.67016552043</v>
-      </c>
-      <c r="C120" t="inlineStr">
+        <v>45089.67016552083</v>
+      </c>
+      <c r="C120" s="6" t="inlineStr">
         <is>
           <t>178daytest</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>269</v>
-      </c>
-      <c r="E120" t="n">
+      <c r="D120" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E120" s="6" t="n">
         <v>264</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120" s="6" t="n">
         <v>6.06</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B121" s="12" t="n">
+        <v>45138.37467510417</v>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>180lastrun</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>262</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B122" s="12" t="n">
+        <v>45138.3927577662</v>
+      </c>
+      <c r="C122" s="6" t="inlineStr">
+        <is>
+          <t>180fnlrun</t>
+        </is>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E122" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F122" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -3777,7 +3831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -4831,6 +4885,33 @@
         <v>4.39</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>45139.52310601852</v>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>180beta</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4845,7 +4926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -7058,6 +7139,87 @@
       </c>
       <c r="G81" s="6" t="n">
         <v>3.81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="n">
+        <v>45125.7645241088</v>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>179htfxslots</t>
+        </is>
+      </c>
+      <c r="D82" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E82" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B83" s="12" t="n">
+        <v>45138.81799356481</v>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>179scndhtfx</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E83" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F83" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" s="6" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="n">
+        <v>45139.83888939953</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>180live</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>269</v>
+      </c>
+      <c r="E84" t="n">
+        <v>265</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -3815,6 +3815,573 @@
         <v>4.04</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="n">
+        <v>45197.77105997685</v>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>183testwaf</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E123" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F123" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" s="6" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B124" s="12" t="n">
+        <v>45202.46721520834</v>
+      </c>
+      <c r="C124" s="6" t="inlineStr">
+        <is>
+          <t>183runscnd</t>
+        </is>
+      </c>
+      <c r="D124" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E124" s="6" t="n">
+        <v>253</v>
+      </c>
+      <c r="F124" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="G124" s="6" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="n">
+        <v>45203.40875496528</v>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>183fnlrun</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E125" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" s="6" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B126" s="12" t="n">
+        <v>45226.63286269676</v>
+      </c>
+      <c r="C126" s="6" t="inlineStr">
+        <is>
+          <t>183fstrun</t>
+        </is>
+      </c>
+      <c r="D126" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E126" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F126" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="n">
+        <v>45229.35255892361</v>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>184fnlrun</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F127" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" s="6" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B128" s="12" t="n">
+        <v>45258.45213578704</v>
+      </c>
+      <c r="C128" s="6" t="inlineStr">
+        <is>
+          <t>185ffstccyle</t>
+        </is>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E128" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F128" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G128" s="6" t="n">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="n">
+        <v>45258.72951241898</v>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>185scnddyle</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>252</v>
+      </c>
+      <c r="F129" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G129" s="6" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B130" s="12" t="n">
+        <v>45259.32512755787</v>
+      </c>
+      <c r="C130" s="6" t="inlineStr">
+        <is>
+          <t>185lastcyc</t>
+        </is>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E130" s="6" t="n">
+        <v>258</v>
+      </c>
+      <c r="F130" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" s="6" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="n">
+        <v>45275.68536493056</v>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>186scndcycle</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E131" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="F131" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B132" s="12" t="n">
+        <v>45278.42814932871</v>
+      </c>
+      <c r="C132" s="6" t="inlineStr">
+        <is>
+          <t>186fnlruun</t>
+        </is>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E132" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F132" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="n">
+        <v>45281.71303184028</v>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E133" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F133" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" s="6" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B134" s="12" t="n">
+        <v>45300.60891875</v>
+      </c>
+      <c r="C134" s="6" t="inlineStr">
+        <is>
+          <t>187scndcycle</t>
+        </is>
+      </c>
+      <c r="D134" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E134" s="6" t="n">
+        <v>254</v>
+      </c>
+      <c r="F134" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B135" s="12" t="n">
+        <v>45301.34294784722</v>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>187lstcycle</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E135" s="6" t="n">
+        <v>263</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G135" s="6" t="n">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B136" s="12" t="n">
+        <v>45307.64948851852</v>
+      </c>
+      <c r="C136" s="6" t="inlineStr">
+        <is>
+          <t>187hftx</t>
+        </is>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E136" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F136" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="n">
+        <v>45323.65985048611</v>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>188firstcyc</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E137" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F137" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="6" t="n">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B138" s="12" t="n">
+        <v>45324.84285538195</v>
+      </c>
+      <c r="C138" s="6" t="inlineStr">
+        <is>
+          <t>188scndcycle</t>
+        </is>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E138" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F138" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="6" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B139" s="12" t="n">
+        <v>45327.40319684028</v>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E139" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F139" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" s="6" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B140" s="12" t="n">
+        <v>45357.70461302083</v>
+      </c>
+      <c r="C140" s="6" t="inlineStr">
+        <is>
+          <t>189ffstccycle</t>
+        </is>
+      </c>
+      <c r="D140" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E140" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F140" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G140" s="6" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B141" s="12" t="n">
+        <v>45358.54568228009</v>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>189scncycle</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E141" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F141" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="6" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B142" s="12" t="n">
+        <v>45359.35813755787</v>
+      </c>
+      <c r="C142" s="6" t="inlineStr">
+        <is>
+          <t>189fnlrun</t>
+        </is>
+      </c>
+      <c r="D142" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E142" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="F142" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G142" s="6" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B143" s="12" t="n">
+        <v>45365.55358833045</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>189retest</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>269</v>
+      </c>
+      <c r="E143" t="n">
+        <v>269</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
@@ -3831,7 +4398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -4912,6 +5479,195 @@
         <v>8.220000000000001</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B40" s="12" t="n">
+        <v>45203.54581758102</v>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>183beta</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>45229.5605677662</v>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>184beta</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>257</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="n">
+        <v>45259.58337025463</v>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>185beta</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>45278.52880746528</v>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>186beta</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="n">
+        <v>45301.56187136574</v>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>187betaa</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>45327.54748646991</v>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>188beta</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="n">
+        <v>45359.45296327546</v>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>189beta</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>6.27</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4926,7 +5682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -7196,30 +7952,435 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="6" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B84" s="12" t="n">
-        <v>45139.83888939953</v>
-      </c>
-      <c r="C84" t="inlineStr">
+        <v>45139.83888939815</v>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>180live</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>269</v>
-      </c>
-      <c r="E84" t="n">
+      <c r="D84" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E84" s="6" t="n">
         <v>265</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84" s="6" t="n">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B85" s="12" t="n">
+        <v>45203.89984746528</v>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>183live</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F85" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" s="6" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="n">
+        <v>45217.55128861111</v>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>183waf</t>
+        </is>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B87" s="12" t="n">
+        <v>45218.98972143519</v>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>183lbwaf</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G87" s="6" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="n">
+        <v>45219.00857478009</v>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>183livelbwaf</t>
+        </is>
+      </c>
+      <c r="D88" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="n">
+        <v>45229.8216633449</v>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>184lliivvee</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E89" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="n">
+        <v>45236.73435414352</v>
+      </c>
+      <c r="C90" s="6" t="inlineStr">
+        <is>
+          <t>htfx184</t>
+        </is>
+      </c>
+      <c r="D90" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E90" s="6" t="n">
+        <v>262</v>
+      </c>
+      <c r="F90" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G90" s="6" t="n">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="n">
+        <v>45259.86662936342</v>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>185live</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F91" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" s="6" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="n">
+        <v>45278.82198633102</v>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>186live</t>
+        </is>
+      </c>
+      <c r="D92" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" s="6" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="n">
+        <v>45279.49669876158</v>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>186livvee</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="F93" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" s="6" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="n">
+        <v>45301.84095503472</v>
+      </c>
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>187live</t>
+        </is>
+      </c>
+      <c r="D94" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="n">
+        <v>45327.88317371528</v>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>188live</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E95" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" s="6" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="n">
+        <v>45338.55202277777</v>
+      </c>
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>188htfixch</t>
+        </is>
+      </c>
+      <c r="D96" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="n">
+        <v>45342.7344549537</v>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>188htttffxx</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B98" s="12" t="n">
+        <v>45359.73620534722</v>
+      </c>
+      <c r="C98" s="6" t="inlineStr">
+        <is>
+          <t>189livee</t>
+        </is>
+      </c>
+      <c r="D98" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G98" s="6" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="n">
+        <v>45364.64097377314</v>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>189htfxlive</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="F99" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" s="6" t="n">
+        <v>7.22</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -4356,30 +4356,273 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="6" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
       <c r="B143" s="12" t="n">
-        <v>45365.55358833045</v>
-      </c>
-      <c r="C143" t="inlineStr">
+        <v>45365.55358833334</v>
+      </c>
+      <c r="C143" s="6" t="inlineStr">
         <is>
           <t>189retest</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>269</v>
-      </c>
-      <c r="E143" t="n">
-        <v>269</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" t="n">
+      <c r="D143" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E143" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F143" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="6" t="n">
         <v>4.51</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B144" s="12" t="n">
+        <v>45379.50678019676</v>
+      </c>
+      <c r="C144" s="6" t="inlineStr">
+        <is>
+          <t>190masstrail</t>
+        </is>
+      </c>
+      <c r="D144" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E144" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F144" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G144" s="6" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B145" s="12" t="n">
+        <v>45379.67118087963</v>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>190fstcycle</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E145" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="F145" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" s="6" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B146" s="12" t="n">
+        <v>45380.45194586806</v>
+      </c>
+      <c r="C146" s="6" t="inlineStr">
+        <is>
+          <t>190scndcycle</t>
+        </is>
+      </c>
+      <c r="D146" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E146" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F146" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="6" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B147" s="12" t="n">
+        <v>45383.37318597222</v>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>190fnlrun</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E147" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F147" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B148" s="12" t="n">
+        <v>45407.45201841435</v>
+      </c>
+      <c r="C148" s="6" t="inlineStr">
+        <is>
+          <t>191trail</t>
+        </is>
+      </c>
+      <c r="D148" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E148" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="F148" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" s="6" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B149" s="12" t="n">
+        <v>45414.48380873843</v>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>191fstcycle</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E149" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F149" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" s="6" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B150" s="12" t="n">
+        <v>45415.3477190625</v>
+      </c>
+      <c r="C150" s="6" t="inlineStr">
+        <is>
+          <t>191lstrun</t>
+        </is>
+      </c>
+      <c r="D150" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E150" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F150" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" s="6" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B151" s="12" t="n">
+        <v>45418.45908497685</v>
+      </c>
+      <c r="C151" s="6" t="inlineStr">
+        <is>
+          <t>sampletestevent12</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E151" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F151" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="6" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B152" s="12" t="n">
+        <v>45418.52041275083</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>191bugfix</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>269</v>
+      </c>
+      <c r="E152" t="n">
+        <v>269</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4.34</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -4398,7 +4641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -5668,6 +5911,60 @@
         <v>6.27</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="n">
+        <v>45383.53779894676</v>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>190betatest</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="n">
+        <v>45415.60846070602</v>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>191beta</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -5682,7 +5979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -8381,6 +8678,33 @@
       </c>
       <c r="G99" s="6" t="n">
         <v>7.22</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B100" s="12" t="n">
+        <v>45383.85344318287</v>
+      </c>
+      <c r="C100" s="6" t="inlineStr">
+        <is>
+          <t>190livee</t>
+        </is>
+      </c>
+      <c r="D100" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>4.89</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -4599,29 +4599,29 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="6" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B152" s="12" t="n">
-        <v>45418.52041275083</v>
-      </c>
-      <c r="C152" t="inlineStr">
+        <v>45418.52041275463</v>
+      </c>
+      <c r="C152" s="6" t="inlineStr">
         <is>
           <t>191bugfix</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>269</v>
-      </c>
-      <c r="E152" t="n">
-        <v>269</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="n">
+      <c r="D152" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E152" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F152" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" s="6" t="n">
         <v>4.34</v>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -8705,6 +8705,33 @@
       </c>
       <c r="G100" s="6" t="n">
         <v>4.89</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="n">
+        <v>45418.56465067549</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>191live</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>269</v>
+      </c>
+      <c r="E101" t="n">
+        <v>255</v>
+      </c>
+      <c r="F101" t="n">
+        <v>14</v>
+      </c>
+      <c r="G101" t="n">
+        <v>8.359999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -4623,6 +4623,60 @@
       </c>
       <c r="G152" s="6" t="n">
         <v>4.34</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B153" s="12" t="n">
+        <v>45467.45294146991</v>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>193uifixes</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E153" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="F153" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G153" s="6" t="n">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B154" s="12" t="n">
+        <v>45482.73019995382</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>193regtest</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>269</v>
+      </c>
+      <c r="E154" t="n">
+        <v>266</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.57</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -5979,7 +6033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -8708,30 +8762,84 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="6" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B101" s="12" t="n">
-        <v>45418.56465067549</v>
-      </c>
-      <c r="C101" t="inlineStr">
+        <v>45418.56465067129</v>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>191live</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>269</v>
-      </c>
-      <c r="E101" t="n">
+      <c r="D101" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E101" s="6" t="n">
         <v>255</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101" s="6" t="n">
         <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B102" s="12" t="n">
+        <v>45467.65477873843</v>
+      </c>
+      <c r="C102" s="6" t="inlineStr">
+        <is>
+          <t>193livepytest</t>
+        </is>
+      </c>
+      <c r="D102" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E102" s="6" t="n">
+        <v>262</v>
+      </c>
+      <c r="F102" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G102" s="6" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="n">
+        <v>45471.52935258102</v>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>193pyieghtsd</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E103" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F103" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="6" t="n">
+        <v>5.02</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/E2E_REGRESSION_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -4653,30 +4653,84 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="6" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
       </c>
       <c r="B154" s="12" t="n">
-        <v>45482.73019995382</v>
-      </c>
-      <c r="C154" t="inlineStr">
+        <v>45482.7301999537</v>
+      </c>
+      <c r="C154" s="6" t="inlineStr">
         <is>
           <t>193regtest</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>269</v>
-      </c>
-      <c r="E154" t="n">
+      <c r="D154" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E154" s="6" t="n">
         <v>266</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154" s="6" t="n">
         <v>5.57</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B155" s="12" t="n">
+        <v>45489.64221078704</v>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E155" s="6" t="n">
+        <v>267</v>
+      </c>
+      <c r="F155" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" s="6" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B156" s="12" t="n">
+        <v>45491.30504333333</v>
+      </c>
+      <c r="C156" s="6" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D156" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="E156" s="6" t="n">
+        <v>269</v>
+      </c>
+      <c r="F156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" s="6" t="n">
+        <v>5.37</v>
       </c>
     </row>
     <row r="1048574" ht="12.8" customHeight="1" s="7"/>
@@ -4695,7 +4749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -6017,6 +6071,33 @@
       </c>
       <c r="G48" s="6" t="n">
         <v>4.74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="n">
+        <v>45491.59448722204</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>269</v>
+      </c>
+      <c r="E49" t="n">
+        <v>269</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6.46</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
